--- a/assets/disciplinas/LOQ4056.xlsx
+++ b/assets/disciplinas/LOQ4056.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-5,EQD-4,EQN-5</t>
+    <t>EB-4,EQD-5,EQN-5</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -154,11 +154,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito fraco)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito fraco)
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOQ4056.xlsx
+++ b/assets/disciplinas/LOQ4056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Gerais: - Mostrar a Química Analítica por via úmida como uma ciência que se propõe a determinar a composição qualitativa e quantitativa da matéria por meio de reações químicas específicas e observação crítica dos resultados, requerendo para isso observadores competentes tecnicamente, criativos e sensatos.
-Específicos: - Ao concluir o curso os alunos devem: interpretar adequadamente as técnicas e princípios inseridos nos textos de Química Analítica; saber manusear com precisão e eficiência a instrumentação analítica, produtos tóxicos, inflamáveis e cáusticos; compreender os diversos tipos de cálculos estequiométricos; preparar, aferir, conservar e usar adequadamente soluções padrões, bem como, o descarte adequadamente em função da toxicidade dos reagentes/produtos.</t>
+    <t>5840601 - Hélcio José Izário Filho</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -83,14 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840601 - Hélcio José Izário Filho</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>- Bases teóricas da química analítica; Introdução à análise qualitativa; Leis e teorias fundamentais; Análise qualitativa sistemática de cátions; Análise qualitativa de ânions.
-- Fundamentos da análise titrimétrica; Titrimetria por Neutralização; Titrimetria por Precipitação; Titrimetria por oxidação-redução: Permanganatometria e Tiossulfatometria; Titrimetria por Complexação.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -102,10 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Bases Teóricas da Análise Qualitativa: Equilíbrio Químico; Efeito do íon Comum; Produto Iônico da água; Concentração do íon H+; Soluções tampão; Hidrólise dos sais; Produto de solubilidade. Operações analíticas: Precipitação; Filtração, Centrifugação. Equipamentos para ensaios por via úmida. Limpeza da aparelhagem/vidrarias. Classificação analítica dos cátions e dos ânions. Análise Qualitativa Sistemática: separação e identificação dos cátions do 1º, 2º e 3º Grupos. Identificação dos ânions segundo Vogel.
-- Fundamentos de Análise Quantitativa - Titrimetria por Neutralização: fundamentos específicos. Preparação e aferição das soluções padrão ácidas e alcalinas; determinações alcalimétricas e acidimétricas. - Titrimetria por Precipitação: discussão geral da Argentimetria. Princípio da acão dos indicadores. Preparação e emprego da solução padrão de nitrato de prata. Sulfocianetometria. Discussão geral. Preparação, aferição e emprego do processo. - Titrimetria por Oxidação-redução: - Permanganatometria. Características gerais do processo. Preparação / aferição e emprego do processo. - Tiossulfatometria: Características gerais do método. Emprego dos processos titulométricos: direto, inverso, indireto e de retorno. - Complexometria: Estudo teórico da formação de complexos. Grupos de coordenação. Características gerais do método. Preparação, aferição e emprego da solução padrão de EDTAH2Na2. Uso de indicadores metalocrômicos. Determinação de metais bivalentes e trivalentes.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -118,33 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Serão aplicadas, por bimestre, duas avaliações, sendo uma avaliação teórica (peso 0,6) e uma avaliação prática (peso 0,4).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A composição da média P1 e P2 será calculado pelo valor da avaliação teórica x 0,6 mais o valor da avaliação prática x 0,4. A média final será a média aritmética da P1 e P2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Na semana da recuperação será dado uma aula teórica e uma avaliação teórica no valor de 10. A Nota final será a média entre a média final (P1 e P2) e a nota da recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia Básica: 
-1) VOGEL, Arthur Israel. Química analítica qualitativa. Sao Paulo: Mestrejou, 1981.
-2) VOGEL, Arthur I. Análise química quantitativa/ G. H. Jeffery; J. Bassett; J. Mendham; R. C. Denney. Rio de Janeiro: Guanabara Koogan, 1992.
-3) BACCAN, Nivaldo; ANDRADE, João Carlos de; GODINHO, Oswaldo E.S.; BARONE, José Salvador. Química analítica quantitativa elementar. São Paulo: Edgard Blücher - Instituto Mauá de Tecnologia, 2005-2007.
-4) BACCAN, Nivaldo et al.  Introdução à semimicroanálise qualitativa. Campinas:Editora da UNICAMP, 1988.
-Bibliografia Complementar:
-SKOOG, Douglas A. et al. Fundamentos da química analítica. São Paulo: Editora Thomson Learning, 2006-9. 
-ALEXEYEV, V. Análise Qualitativa. Porto: Editora Lopes da Silva, 1982. 
-HARRIS, Daniel C. Análise Química Quantitativa. 6. ed. Rio de Janeiro: Livros Técnicos e Científicos, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -515,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,34 +626,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -687,93 +670,82 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4056.xlsx
+++ b/assets/disciplinas/LOQ4056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Gerais: - Mostrar a Química Analítica por via úmida como uma ciência que se propõe a determinar a composição qualitativa e quantitativa da matéria por meio de reações químicas específicas e observação crítica dos resultados, requerendo para isso observadores competentes tecnicamente, criativos e sensatos.
+Específicos: - Ao concluir o curso os alunos devem: interpretar adequadamente as técnicas e princípios inseridos nos textos de Química Analítica; saber manusear com precisão e eficiência a instrumentação analítica, produtos tóxicos, inflamáveis e cáusticos; compreender os diversos tipos de cálculos estequiométricos; preparar, aferir, conservar e usar adequadamente soluções padrões, bem como, o descarte adequadamente em função da toxicidade dos reagentes/produtos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>General- Show the Analytical Chemistry wet method as a science that objective to determine the qualitative and quantitative composition of matter through specific chemical reactions and critical observation of the results, requiring only technically competent observers, creative and sensible.Specifics: - By completing the course students should: properly interpret the principles and techniques inserted into in the texts of Analytical Chemistry; know accurately and efficiently handle the analytical instrumentation, toxic, flammable and caustic; understand the various types of stoichiometric calculations, prepare, measure, solutions properly maintain and use patterns, as well as the disposal appropriately depending on the toxicity of the reactants / products.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840601 - Hélcio José Izário Filho</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>General- Show the Analytical Chemistry wet method as a science that objective to determine the qualitative and quantitative composition of matter through specific chemical reactions and critical observation of the results, requiring only technically competent observers, creative and sensible.Specifics: - By completing the course students should: properly interpret the principles and techniques inserted into in the texts of Analytical Chemistry; know accurately and efficiently handle the analytical instrumentation, toxic, flammable and caustic; understand the various types of stoichiometric calculations, prepare, measure, solutions properly maintain and use patterns, as well as the disposal appropriately depending on the toxicity of the reactants / products.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>- Bases teóricas da química analítica; Introdução à análise qualitativa; Leis e teorias fundamentais; Análise qualitativa sistemática de cátions; Análise qualitativa de ânions.
+- Fundamentos da análise titrimétrica; Titrimetria por Neutralização; Titrimetria por Precipitação; Titrimetria por oxidação-redução: Permanganatometria e Tiossulfatometria; Titrimetria por Complexação.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +102,10 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Bases Teóricas da Análise Qualitativa: Equilíbrio Químico; Efeito do íon Comum; Produto Iônico da água; Concentração do íon H+; Soluções tampão; Hidrólise dos sais; Produto de solubilidade. Operações analíticas: Precipitação; Filtração, Centrifugação. Equipamentos para ensaios por via úmida. Limpeza da aparelhagem/vidrarias. Classificação analítica dos cátions e dos ânions. Análise Qualitativa Sistemática: separação e identificação dos cátions do 1º, 2º e 3º Grupos. Identificação dos ânions segundo Vogel.
+- Fundamentos de Análise Quantitativa - Titrimetria por Neutralização: fundamentos específicos. Preparação e aferição das soluções padrão ácidas e alcalinas; determinações alcalimétricas e acidimétricas. - Titrimetria por Precipitação: discussão geral da Argentimetria. Princípio da acão dos indicadores. Preparação e emprego da solução padrão de nitrato de prata. Sulfocianetometria. Discussão geral. Preparação, aferição e emprego do processo. - Titrimetria por Oxidação-redução: - Permanganatometria. Características gerais do processo. Preparação / aferição e emprego do processo. - Tiossulfatometria: Características gerais do método. Emprego dos processos titulométricos: direto, inverso, indireto e de retorno. - Complexometria: Estudo teórico da formação de complexos. Grupos de coordenação. Características gerais do método. Preparação, aferição e emprego da solução padrão de EDTAH2Na2. Uso de indicadores metalocrômicos. Determinação de metais bivalentes e trivalentes.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +118,33 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Serão aplicadas, por bimestre, duas avaliações, sendo uma avaliação teórica (peso 0,6) e uma avaliação prática (peso 0,4).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão aplicadas, por bimestre, duas avaliações, sendo uma avaliação teórica (peso 0,6) e uma avaliação prática (peso 0,4).</t>
+    <t>A composição da média P1 e P2 será calculado pelo valor da avaliação teórica x 0,6 mais o valor da avaliação prática x 0,4. A média final será a média aritmética da P1 e P2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A composição da média P1 e P2 será calculado pelo valor da avaliação teórica x 0,6 mais o valor da avaliação prática x 0,4. A média final será a média aritmética da P1 e P2.</t>
+    <t>Na semana da recuperação será dado uma aula teórica e uma avaliação teórica no valor de 10. A Nota final será a média entre a média final (P1 e P2) e a nota da recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Na semana da recuperação será dado uma aula teórica e uma avaliação teórica no valor de 10. A Nota final será a média entre a média final (P1 e P2) e a nota da recuperação.</t>
+    <t>Bibliografia Básica: 
+1) VOGEL, Arthur Israel. Química analítica qualitativa. Sao Paulo: Mestrejou, 1981.
+2) VOGEL, Arthur I. Análise química quantitativa/ G. H. Jeffery; J. Bassett; J. Mendham; R. C. Denney. Rio de Janeiro: Guanabara Koogan, 1992.
+3) BACCAN, Nivaldo; ANDRADE, João Carlos de; GODINHO, Oswaldo E.S.; BARONE, José Salvador. Química analítica quantitativa elementar. São Paulo: Edgard Blücher - Instituto Mauá de Tecnologia, 2005-2007.
+4) BACCAN, Nivaldo et al.  Introdução à semimicroanálise qualitativa. Campinas:Editora da UNICAMP, 1988.
+Bibliografia Complementar:
+SKOOG, Douglas A. et al. Fundamentos da química analítica. São Paulo: Editora Thomson Learning, 2006-9. 
+ALEXEYEV, V. Análise Qualitativa. Porto: Editora Lopes da Silva, 1982. 
+HARRIS, Daniel C. Análise Química Quantitativa. 6. ed. Rio de Janeiro: Livros Técnicos e Científicos, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,37 +646,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -670,82 +687,93 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
